--- a/experiments/preprocessing/debug_splits/raw_test_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_test_split.xlsx
@@ -908,9 +908,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>0</v>
       </c>
@@ -1187,9 +1185,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>48</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
@@ -1829,9 +1825,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>45</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
       </c>

--- a/experiments/preprocessing/debug_splits/raw_test_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_test_split.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>Embarked</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>temp_index</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -527,9 +522,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -570,9 +562,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -609,9 +598,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,9 +640,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,9 +676,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,9 +712,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -769,9 +746,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,9 +782,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -851,9 +822,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -890,9 +858,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -927,9 +892,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -966,9 +928,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1011,9 +970,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1050,9 +1006,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1089,9 +1042,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,9 +1078,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1167,9 +1114,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1210,9 +1154,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1255,9 +1196,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1294,9 +1232,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1335,9 +1270,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1378,9 +1310,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1417,9 +1346,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1454,9 +1380,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1495,9 +1418,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1536,9 +1456,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1577,9 +1494,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1620,9 +1534,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1659,9 +1570,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1696,9 +1604,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1733,9 +1638,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1770,9 +1672,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1807,9 +1706,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1844,9 +1740,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1883,9 +1776,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1922,9 +1812,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1965,9 +1852,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2004,9 +1888,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2043,9 +1924,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2082,9 +1960,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2121,9 +1996,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2162,9 +2034,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2201,9 +2070,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2246,9 +2112,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K45" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2285,9 +2148,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2322,9 +2182,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K47" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2363,9 +2220,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2402,9 +2256,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K49" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2441,9 +2292,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K50" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2482,9 +2330,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K51" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2521,9 +2366,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K52" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2564,9 +2406,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K53" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2603,9 +2442,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2648,9 +2484,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2687,9 +2520,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K56" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2726,9 +2556,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K57" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2763,9 +2590,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K58" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2806,9 +2630,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K59" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2849,9 +2670,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K60" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2888,9 +2706,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K61" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2925,9 +2740,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K62" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2966,9 +2778,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K63" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3005,9 +2814,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K64" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3046,9 +2852,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K65" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3087,9 +2890,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K66" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3126,9 +2926,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K67" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3164,9 +2961,6 @@
         <is>
           <t>S</t>
         </is>
-      </c>
-      <c r="K68" t="n">
-        <v>66</v>
       </c>
     </row>
     <row r="69">
@@ -3202,9 +2996,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3241,9 +3032,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K70" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3286,9 +3074,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K71" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3325,9 +3110,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K72" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3362,9 +3144,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K73" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3403,9 +3182,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K74" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3444,9 +3220,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K75" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3483,9 +3256,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K76" t="n">
-        <v>74</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3524,9 +3294,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3565,9 +3332,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K78" t="n">
-        <v>76</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3604,9 +3368,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K79" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3643,9 +3404,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K80" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3682,9 +3440,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K81" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3725,9 +3480,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K82" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3762,9 +3514,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K83" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3799,9 +3548,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K84" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3835,9 +3581,6 @@
         <is>
           <t>S</t>
         </is>
-      </c>
-      <c r="K85" t="n">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/preprocessing/debug_splits/raw_test_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_test_split.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,35 +486,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>18</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A/4 31416</t>
-        </is>
+      <c r="G2" t="n">
+        <v>349217</v>
       </c>
       <c r="H2" t="n">
-        <v>8.050000000000001</v>
+        <v>7.8958</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
@@ -524,117 +518,105 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>239853</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>110152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B79</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>19950</v>
-      </c>
-      <c r="H3" t="n">
-        <v>263</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C23 C25 C27</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>315092</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.6625</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F.C. 12750</t>
+          <t>W./C. 14263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>52</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>B71</t>
-        </is>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>S</t>
@@ -642,10 +624,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -655,20 +635,18 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>349909</v>
+        <v>349218</v>
       </c>
       <c r="H6" t="n">
-        <v>21.075</v>
+        <v>7.8958</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
@@ -678,13 +656,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -692,21 +668,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>250651</v>
+        <v>348124</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F G73</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>S</t>
@@ -714,67 +694,65 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>31</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>240261</v>
+        <v>363291</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7083</v>
+        <v>20.525</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A9" t="n">
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>363272</v>
+        <v>234686</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
@@ -784,62 +762,50 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A10" t="n">
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2627</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.4583</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21228</v>
-      </c>
-      <c r="H10" t="n">
-        <v>82.2667</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>B45</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>28</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -847,23 +813,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>347086</v>
+        <v>17421</v>
       </c>
       <c r="H11" t="n">
-        <v>7.775</v>
+        <v>110.8833</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -873,7 +837,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
@@ -881,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>345768</v>
+        <v>347067</v>
       </c>
       <c r="H12" t="n">
-        <v>9.5</v>
+        <v>7.775</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
@@ -894,91 +860,81 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36928</v>
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PC 17755</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>164.8667</v>
+        <v>512.3292</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>PC 17755</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>315088</v>
       </c>
       <c r="H14" t="n">
-        <v>512.3292</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>B51 B53 B55</t>
-        </is>
-      </c>
+        <v>8.6625</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A15" t="n">
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -986,7 +942,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -995,23 +951,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28004</v>
+        <v>2683</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>6.4375</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -1021,9 +975,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>22</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -1031,34 +983,32 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2658</v>
+        <v>330979</v>
       </c>
       <c r="H16" t="n">
-        <v>7.225</v>
+        <v>7.8292</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1067,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>248744</v>
+        <v>7553</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>9.8375</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
@@ -1080,140 +1030,128 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>53</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11769</v>
+      </c>
+      <c r="H18" t="n">
+        <v>51.4792</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>230136</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>21</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>350053</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7.7958</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>343120</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>PC 17761</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>106.425</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>C86</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>PC 17608</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>262.375</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>B57 B59 B63 B66</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>23</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>1</v>
       </c>
@@ -1221,12 +1159,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>347072</v>
+        <v>19996</v>
       </c>
       <c r="H21" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>C126</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>S</t>
@@ -1234,13 +1176,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A22" t="n">
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1248,7 +1188,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1258,51 +1198,49 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC 17585</t>
+          <t>STON/O 2. 3101280</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>79.2</v>
+        <v>7.925</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A23" t="n">
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>112058</v>
+        <v>19950</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>B52 B54 B56</t>
+          <t>C23 C25 C27</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1312,13 +1250,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A24" t="n">
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1326,7 +1262,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1335,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>226875</v>
+        <v>350048</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>7.0542</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -1348,31 +1284,31 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A25" t="n">
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>54</v>
+      </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>386525</v>
+        <v>29105</v>
       </c>
       <c r="H25" t="n">
-        <v>16.1</v>
+        <v>23</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
@@ -1382,10 +1318,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -1403,52 +1337,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>237735</v>
+        <v>244373</v>
       </c>
       <c r="H26" t="n">
-        <v>15.0458</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A27" t="n">
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SOTON/O.Q. 3101315</t>
+          <t>C 4001</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13.775</v>
+        <v>22.525</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1458,13 +1386,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A28" t="n">
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1472,7 +1398,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1480,13 +1406,11 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>SC 14888</t>
-        </is>
+      <c r="G28" t="n">
+        <v>349212</v>
       </c>
       <c r="H28" t="n">
-        <v>10.5</v>
+        <v>7.8958</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
@@ -1496,13 +1420,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A29" t="n">
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1510,82 +1432,78 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>11778</v>
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>55.4417</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>C116</t>
-        </is>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A30" t="n">
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
-        <v>2656</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PC 17318</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>7.225</v>
+        <v>25.925</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A31" t="n">
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>23</v>
+      </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
@@ -1593,94 +1511,94 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>370374</v>
+        <v>233639</v>
       </c>
       <c r="H31" t="n">
-        <v>7.75</v>
+        <v>13</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
-        <v>364859</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>F.C.C. 13531</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>7.75</v>
+        <v>10.5</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A33" t="n">
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>44</v>
+      </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>368402</v>
+        <v>244252</v>
       </c>
       <c r="H33" t="n">
-        <v>7.75</v>
+        <v>26</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A34" t="n">
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1694,45 +1612,47 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
-        <v>3470</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PC 17612</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>7.8875</v>
+        <v>27.7208</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A35" t="n">
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>22</v>
+      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>237789</v>
+        <v>347085</v>
       </c>
       <c r="H35" t="n">
-        <v>30</v>
+        <v>7.775</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -1742,10 +1662,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A36" t="n">
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -1756,7 +1674,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1765,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2670</v>
+        <v>2663</v>
       </c>
       <c r="H36" t="n">
-        <v>7.225</v>
+        <v>7.2292</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -1778,22 +1696,18 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A37" t="n">
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>30</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>0</v>
       </c>
@@ -1801,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>233478</v>
+        <v>312993</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>7.775</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -1814,75 +1728,71 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A38" t="n">
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6563</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>54</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>33638</v>
-      </c>
-      <c r="H38" t="n">
-        <v>81.8583</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>A34</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>244360</v>
+        <v>17474</v>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>57</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>S</t>
@@ -1890,10 +1800,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A40" t="n">
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -1903,7 +1811,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>22</v>
+      </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
@@ -1912,11 +1822,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>S.O./P.P. 251</t>
+          <t>STON/O 2. 3101275</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7.55</v>
+        <v>7.125</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -1926,10 +1836,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A41" t="n">
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
@@ -1939,20 +1847,20 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>32</v>
+      </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>LP 1588</t>
-        </is>
+      <c r="G41" t="n">
+        <v>3101278</v>
       </c>
       <c r="H41" t="n">
-        <v>7.575</v>
+        <v>15.85</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
@@ -1962,95 +1870,93 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A42" t="n">
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>23</v>
+      </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>F.C. 12998</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29104</v>
       </c>
       <c r="H42" t="n">
-        <v>25.7417</v>
+        <v>11.5</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>24</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PC 17477</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>31</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>F.C.C. 13528</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>21</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A44" t="n">
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2058,11 +1964,13 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="n">
-        <v>315085</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>C 7075</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>8.6625</v>
+        <v>6.45</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
@@ -2072,125 +1980,121 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A45" t="n">
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>113773</v>
+      </c>
+      <c r="H45" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>39</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>PC 17758</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>C105</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>SC/PARIS 2159</t>
-        </is>
+      <c r="G46" t="n">
+        <v>364846</v>
       </c>
       <c r="H46" t="n">
-        <v>12.875</v>
+        <v>7.75</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A47" t="n">
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>31</v>
+      </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>365235</v>
+        <v>35273</v>
       </c>
       <c r="H47" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>113.275</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>D36</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A48" t="n">
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2198,7 +2102,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2206,13 +2110,11 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>C.A. 34050</t>
-        </is>
+      <c r="G48" t="n">
+        <v>315082</v>
       </c>
       <c r="H48" t="n">
-        <v>10.5</v>
+        <v>7.875</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
@@ -2222,21 +2124,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.83</v>
+        <v>44</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2245,59 +2145,63 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>392091</v>
+        <v>111361</v>
       </c>
       <c r="H49" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>57.9792</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A50" t="n">
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>27</v>
+      </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>A/5 1478</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>113503</v>
       </c>
       <c r="H50" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>211.5</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>C82</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A51" t="n">
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -2308,21 +2212,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>A/4 48873</t>
-        </is>
+      <c r="G51" t="n">
+        <v>347061</v>
       </c>
       <c r="H51" t="n">
-        <v>8.050000000000001</v>
+        <v>6.975</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -2332,13 +2234,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A52" t="n">
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2346,19 +2246,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>3101266</v>
+        <v>29108</v>
       </c>
       <c r="H52" t="n">
-        <v>6.4958</v>
+        <v>11.5</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
@@ -2368,13 +2268,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2382,36 +2280,30 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>13567</v>
+        <v>250655</v>
       </c>
       <c r="H53" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>B41</t>
-        </is>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A54" t="n">
+        <v>0</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -2425,16 +2317,16 @@
         <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>347471</v>
+        <v>4136</v>
       </c>
       <c r="H54" t="n">
-        <v>7.8542</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -2444,13 +2336,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A55" t="n">
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2458,61 +2348,55 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>C.A. 33595</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
         <v>2</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>PC 17756</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>83.1583</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>E45</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>239059</v>
+        <v>315151</v>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>8.6625</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -2522,13 +2406,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A57" t="n">
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2536,77 +2418,81 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>350026</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PC 17610</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>14.1083</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>27.7208</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A58" t="n">
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>26</v>
+      </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>2660</v>
+        <v>250651</v>
       </c>
       <c r="H58" t="n">
-        <v>14.4542</v>
+        <v>26</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A59" t="n">
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2615,16 +2501,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>113038</v>
+        <v>7552</v>
       </c>
       <c r="H59" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>B11</t>
-        </is>
-      </c>
+        <v>10.5167</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>S</t>
@@ -2632,13 +2514,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A60" t="n">
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2646,7 +2526,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2654,85 +2534,81 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
-        <v>113780</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>C 7076</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>C51</t>
-        </is>
-      </c>
+        <v>7.25</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A61" t="n">
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>17475</v>
+        <v>2691</v>
       </c>
       <c r="H61" t="n">
-        <v>26.55</v>
+        <v>14.4542</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A62" t="n">
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>33</v>
+      </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>364498</v>
+        <v>26360</v>
       </c>
       <c r="H62" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -2742,35 +2618,31 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A63" t="n">
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>SOTON/OQ 392083</t>
-        </is>
+      <c r="G63" t="n">
+        <v>26707</v>
       </c>
       <c r="H63" t="n">
-        <v>8.050000000000001</v>
+        <v>26</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
@@ -2780,33 +2652,33 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A64" t="n">
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CA. 2343</t>
+          <t>C.A. 31921</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>69.55</v>
+        <v>26.25</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
@@ -2816,13 +2688,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A65" t="n">
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2830,7 +2700,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2838,13 +2708,11 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>F.C.C. 13540</t>
-        </is>
+      <c r="G65" t="n">
+        <v>349252</v>
       </c>
       <c r="H65" t="n">
-        <v>10.5</v>
+        <v>7.8958</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
@@ -2854,13 +2722,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A66" t="n">
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2868,23 +2734,27 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SC/PARIS 2167</t>
+          <t>PC 17757</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>27.7208</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>227.525</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>C45</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>C</t>
@@ -2892,33 +2762,31 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A67" t="n">
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>3101298</v>
+        <v>7534</v>
       </c>
       <c r="H67" t="n">
-        <v>12.2875</v>
+        <v>9.216699999999999</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
@@ -2928,13 +2796,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A68" t="n">
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2942,7 +2808,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2951,80 +2817,84 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>349211</v>
+        <v>111369</v>
       </c>
       <c r="H68" t="n">
-        <v>7.8958</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>C148</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A69" t="n">
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>367226</v>
+        <v>230080</v>
       </c>
       <c r="H69" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A70" t="n">
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>38</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>347091</v>
+        <v>113796</v>
       </c>
       <c r="H70" t="n">
-        <v>7.775</v>
+        <v>42.4</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
@@ -3034,125 +2904,115 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A71" t="n">
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC 17608</t>
+          <t>STON/O 2. 3101286</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>262.375</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>B57 B59 B63 B66</t>
-        </is>
-      </c>
+        <v>7.925</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A72" t="n">
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>21</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>364858</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>SC/PARIS 2146</t>
+        </is>
       </c>
       <c r="H72" t="n">
-        <v>7.75</v>
+        <v>13.8625</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A73" t="n">
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>27</v>
+      </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2684</v>
+        <v>11668</v>
       </c>
       <c r="H73" t="n">
-        <v>7.225</v>
+        <v>21</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A74" t="n">
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3160,23 +3020,25 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>C.A. 33112</t>
-        </is>
+      <c r="G74" t="n">
+        <v>113760</v>
       </c>
       <c r="H74" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>B96 B98</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>S</t>
@@ -3184,10 +3046,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A75" t="n">
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>2</v>
@@ -3198,7 +3058,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3208,63 +3068,65 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>C.A. 34644</t>
+          <t>C.A./SOTON 34068</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>12.7375</v>
+        <v>10.5</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>37</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>PC 17596</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>C118</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>22</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>350045</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7.7958</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A77" t="n">
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3272,7 +3134,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3280,13 +3142,11 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>SC/A4 23568</t>
-        </is>
+      <c r="G77" t="n">
+        <v>237565</v>
       </c>
       <c r="H77" t="n">
-        <v>8.050000000000001</v>
+        <v>15</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -3296,10 +3156,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A78" t="n">
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>2</v>
@@ -3310,7 +3168,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3318,13 +3176,11 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>W./C. 14260</t>
-        </is>
+      <c r="G78" t="n">
+        <v>28228</v>
       </c>
       <c r="H78" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
@@ -3334,33 +3190,33 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A79" t="n">
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="n">
-        <v>26707</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>C 17369</t>
+        </is>
       </c>
       <c r="H79" t="n">
-        <v>26</v>
+        <v>7.1417</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
@@ -3370,13 +3226,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A80" t="n">
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3384,7 +3238,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3392,11 +3246,13 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>7266</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>S.W./PP 752</t>
+        </is>
       </c>
       <c r="H80" t="n">
-        <v>9.324999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -3406,75 +3262,69 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A81" t="n">
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2653</v>
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>PC 17611</t>
+        </is>
       </c>
       <c r="H81" t="n">
-        <v>15.7417</v>
+        <v>133.65</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A82" t="n">
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>19950</v>
+        <v>315086</v>
       </c>
       <c r="H82" t="n">
-        <v>263</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>C23 C25 C27</t>
-        </is>
-      </c>
+        <v>8.6625</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>S</t>
@@ -3482,102 +3332,3444 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A83" t="n">
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>2622</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>S.O.C. 14879</t>
+        </is>
       </c>
       <c r="H83" t="n">
-        <v>7.2292</v>
+        <v>73.5</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A84" t="n">
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
+      </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>2652</v>
+        <v>349909</v>
       </c>
       <c r="H84" t="n">
-        <v>7.2292</v>
+        <v>21.075</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>12749</v>
+      </c>
+      <c r="H85" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>B73</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>17</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101274</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>312991</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>349909</v>
+      </c>
+      <c r="H88" t="n">
+        <v>21.075</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>233866</v>
+      </c>
+      <c r="H89" t="n">
+        <v>13</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>60</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>110813</v>
+      </c>
+      <c r="H90" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>D37</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>3</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>349235</v>
-      </c>
-      <c r="H85" t="n">
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>30</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>364516</v>
+      </c>
+      <c r="H91" t="n">
+        <v>12.475</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>65</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>113509</v>
+      </c>
+      <c r="H92" t="n">
+        <v>61.9792</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>29</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2650</v>
+      </c>
+      <c r="H93" t="n">
+        <v>15.2458</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>39</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>347082</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31.275</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>25</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>SOTON/O.Q. 3101312</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>364850</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>SOTON/O.Q. 3101307</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>26</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>31028</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>33</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>349239</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8.6625</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>382649</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>32</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>SOTON/O.Q. 392078</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>21</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101294</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>36</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>19877</v>
+      </c>
+      <c r="H103" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>C46</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>367232</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2653</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15.7417</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>40</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>349251</v>
+      </c>
+      <c r="H106" t="n">
         <v>7.8958</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>40</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>364849</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>54636</v>
+      </c>
+      <c r="H108" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>349256</v>
+      </c>
+      <c r="H109" t="n">
+        <v>13.4167</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>330959</v>
+      </c>
+      <c r="H110" t="n">
+        <v>7.8792</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>A/5 3594</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>112058</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>113781</v>
+      </c>
+      <c r="H113" t="n">
+        <v>151.55</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>C22 C26</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>110465</v>
+      </c>
+      <c r="H114" t="n">
+        <v>52</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>A14</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>54</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>35281</v>
+      </c>
+      <c r="H115" t="n">
+        <v>77.28749999999999</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>D26</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PC 17757</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>227.525</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>SOTON/OQ 392086</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>48</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>19996</v>
+      </c>
+      <c r="H118" t="n">
+        <v>52</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>C126</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2653</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15.7417</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>21</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>A/4. 39886</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>48</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19952</v>
+      </c>
+      <c r="H121" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>18</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>350404</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7.8542</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>25</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>230433</v>
+      </c>
+      <c r="H123" t="n">
+        <v>26</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>29</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>343276</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>38</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>237671</v>
+      </c>
+      <c r="H125" t="n">
+        <v>13</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>45</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>111428</v>
+      </c>
+      <c r="H126" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>10</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>345773</v>
+      </c>
+      <c r="H127" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>30</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>31027</v>
+      </c>
+      <c r="H128" t="n">
+        <v>21</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>349237</v>
+      </c>
+      <c r="H129" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>21</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>A./5. 2152</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>27</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>SC/PARIS 2149</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>13.8583</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>32</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1601</v>
+      </c>
+      <c r="H132" t="n">
+        <v>56.4958</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>57</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>S.O./P.P. 3</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>E77</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>28</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>347080</v>
+      </c>
+      <c r="H134" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>31</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>PC 17590</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>50.4958</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>A24</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2665</v>
+      </c>
+      <c r="H136" t="n">
+        <v>14.4542</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>347470</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7.8542</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>39</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>A/4 48871</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>21</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PC 17608</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>262.375</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>B57 B59 B63 B66</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>14</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3101295</v>
+      </c>
+      <c r="H140" t="n">
+        <v>39.6875</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>58</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>35273</v>
+      </c>
+      <c r="H141" t="n">
+        <v>113.275</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>D48</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>237736</v>
+      </c>
+      <c r="H142" t="n">
+        <v>30.0708</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>372622</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>347077</v>
+      </c>
+      <c r="H144" t="n">
+        <v>31.3875</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>80</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27042</v>
+      </c>
+      <c r="H145" t="n">
+        <v>30</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>A23</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>16</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>22</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>113505</v>
+      </c>
+      <c r="H147" t="n">
+        <v>55</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>36209</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>W./C. 6609</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>22</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>347081</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>70</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>C.A. 24580</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>231919</v>
+      </c>
+      <c r="H152" t="n">
+        <v>23</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3101295</v>
+      </c>
+      <c r="H153" t="n">
+        <v>39.6875</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>347077</v>
+      </c>
+      <c r="H154" t="n">
+        <v>31.3875</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>40</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>112277</v>
+      </c>
+      <c r="H155" t="n">
+        <v>31</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>A31</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>22</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>13568</v>
+      </c>
+      <c r="H156" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>B39</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>26</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2699</v>
+      </c>
+      <c r="H157" t="n">
+        <v>18.7875</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>33</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>110152</v>
+      </c>
+      <c r="H158" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>B77</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>40</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>16966</v>
+      </c>
+      <c r="H159" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>E34</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>323592</v>
+      </c>
+      <c r="H160" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>343095</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>36568</v>
+      </c>
+      <c r="H162" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>A/5 2466</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>48</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>350047</v>
+      </c>
+      <c r="H164" t="n">
+        <v>7.8542</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>59</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>364500</v>
+      </c>
+      <c r="H165" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>19877</v>
+      </c>
+      <c r="H166" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>65</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>336439</v>
+      </c>
+      <c r="H167" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>27</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>244358</v>
+      </c>
+      <c r="H168" t="n">
+        <v>26</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>S.C./PARIS 2079</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>37.0042</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>22</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>A/5 21172</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>37</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3101276</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>45</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7598</v>
+      </c>
+      <c r="H172" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>27</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>220367</v>
+      </c>
+      <c r="H173" t="n">
+        <v>13</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2631</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>C.A. 34651</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>16</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>239865</v>
+      </c>
+      <c r="H176" t="n">
+        <v>26</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>45</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>36973</v>
+      </c>
+      <c r="H177" t="n">
+        <v>83.47499999999999</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>C83</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>10</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>347088</v>
+      </c>
+      <c r="H178" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>56</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>17764</v>
+      </c>
+      <c r="H179" t="n">
+        <v>30.6958</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>37</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>113803</v>
+      </c>
+      <c r="H180" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>C123</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>S</t>
         </is>

--- a/experiments/preprocessing/debug_splits/raw_test_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_test_split.xlsx
@@ -504,11 +504,13 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>349217</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A./5. 3235</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>7.8958</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
@@ -522,14 +524,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>45.5</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -537,12 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>239853</v>
+        <v>113043</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C124</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>S</t>
@@ -562,25 +570,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>110152</v>
+        <v>36928</v>
       </c>
       <c r="H4" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>B79</t>
-        </is>
-      </c>
+        <v>164.8667</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>S</t>
@@ -599,22 +603,18 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>29</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>W./C. 14263</t>
-        </is>
+      <c r="G5" t="n">
+        <v>239853</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
@@ -625,7 +625,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -635,7 +635,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -643,24 +645,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>349218</v>
+        <v>2663</v>
       </c>
       <c r="H6" t="n">
-        <v>7.8958</v>
+        <v>7.2292</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -668,28 +670,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>348124</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PC 17755</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>7.65</v>
+        <v>512.3292</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>F G73</t>
+          <t>B51 B53 B55</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -698,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -706,24 +710,26 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>363291</v>
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SC/Paris 2123</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>20.525</v>
+        <v>41.5792</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -732,27 +738,27 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>234686</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CA. 2343</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>69.55</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
@@ -773,7 +779,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -781,31 +789,33 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2627</v>
+        <v>345778</v>
       </c>
       <c r="H10" t="n">
-        <v>14.4583</v>
+        <v>9.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -813,15 +823,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>17421</v>
+        <v>347464</v>
       </c>
       <c r="H11" t="n">
-        <v>110.8833</v>
+        <v>7.8542</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -834,23 +844,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>347067</v>
+        <v>349237</v>
       </c>
       <c r="H12" t="n">
-        <v>7.775</v>
+        <v>17.8</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
@@ -861,18 +871,18 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -880,31 +890,29 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>PC 17755</t>
-        </is>
+      <c r="G13" t="n">
+        <v>248731</v>
       </c>
       <c r="H13" t="n">
-        <v>512.3292</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -917,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315088</v>
+        <v>236852</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6625</v>
+        <v>13</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
@@ -941,9 +949,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -951,15 +957,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2683</v>
+        <v>383121</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4375</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>F38</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -975,23 +985,25 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>330979</v>
+        <v>347088</v>
       </c>
       <c r="H16" t="n">
-        <v>7.8292</v>
+        <v>27.9</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1000,27 +1012,27 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7553</v>
+        <v>236853</v>
       </c>
       <c r="H17" t="n">
-        <v>9.8375</v>
+        <v>26</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
@@ -1031,36 +1043,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>11769</v>
+        <v>29751</v>
       </c>
       <c r="H18" t="n">
-        <v>51.4792</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>S</t>
@@ -1069,10 +1077,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1080,25 +1088,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>230136</v>
+        <v>358585</v>
       </c>
       <c r="H19" t="n">
-        <v>39</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>F4</t>
-        </is>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>S</t>
@@ -1107,35 +1111,35 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>343120</v>
+        <v>364849</v>
       </c>
       <c r="H20" t="n">
-        <v>7.65</v>
+        <v>15.5</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -1144,31 +1148,29 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>19996</v>
+        <v>29106</v>
       </c>
       <c r="H21" t="n">
-        <v>52</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>C126</t>
-        </is>
-      </c>
+        <v>18.75</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>S</t>
@@ -1187,27 +1189,23 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>21</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101280</t>
-        </is>
+      <c r="G22" t="n">
+        <v>36865</v>
       </c>
       <c r="H22" t="n">
-        <v>7.925</v>
+        <v>7.7375</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1224,25 +1222,21 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>231919</v>
+      </c>
+      <c r="H23" t="n">
         <v>23</v>
       </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19950</v>
-      </c>
-      <c r="H23" t="n">
-        <v>263</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>C23 C25 C27</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>S</t>
@@ -1258,28 +1252,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>350048</v>
+        <v>2678</v>
       </c>
       <c r="H24" t="n">
-        <v>7.0542</v>
+        <v>15.2458</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1296,40 +1290,44 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>29105</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PC 17757</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>227.525</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -1337,12 +1335,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>244373</v>
+        <v>348123</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>F G73</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>S</t>
@@ -1351,14 +1353,14 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1370,13 +1372,11 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C 4001</t>
-        </is>
+      <c r="G27" t="n">
+        <v>237668</v>
       </c>
       <c r="H27" t="n">
-        <v>22.525</v>
+        <v>13</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1394,23 +1394,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>349212</v>
+        <v>7546</v>
       </c>
       <c r="H28" t="n">
-        <v>7.8958</v>
+        <v>9.475</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
@@ -1421,32 +1421,30 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>CA 2144</t>
-        </is>
+      <c r="G29" t="n">
+        <v>220845</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9</v>
+        <v>65</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
@@ -1457,35 +1455,35 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>12</v>
+      </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>PC 17318</t>
-        </is>
+      <c r="G30" t="n">
+        <v>2651</v>
       </c>
       <c r="H30" t="n">
-        <v>25.925</v>
+        <v>11.2417</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1502,7 +1500,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1511,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>233639</v>
+        <v>1601</v>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>56.4958</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1525,34 +1523,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>19</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>50</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>F.C.C. 13531</t>
-        </is>
+      <c r="G32" t="n">
+        <v>19950</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>C23 C25 C27</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>S</t>
@@ -1561,30 +1561,30 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>244252</v>
+        <v>1601</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>56.4958</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -1595,32 +1595,38 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>18</v>
+      </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC 17612</t>
+          <t>PC 17608</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>27.7208</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>262.375</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>B57 B59 B63 B66</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>C</t>
@@ -1629,18 +1635,18 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1649,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>347085</v>
+        <v>347468</v>
       </c>
       <c r="H35" t="n">
-        <v>7.775</v>
+        <v>7.8542</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -1666,48 +1672,56 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2663</v>
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PC 17582</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>7.2292</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>153.4625</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>C125</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
@@ -1715,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>312993</v>
+        <v>250648</v>
       </c>
       <c r="H37" t="n">
-        <v>7.775</v>
+        <v>13</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -1729,10 +1743,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1740,59 +1754,61 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" t="n">
-        <v>6563</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PC 17485</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>9.225</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>56.9292</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>17474</v>
+        <v>315082</v>
       </c>
       <c r="H39" t="n">
-        <v>57</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>B20</t>
-        </is>
-      </c>
+        <v>7.875</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>S</t>
@@ -1811,61 +1827,63 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>22</v>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101275</t>
-        </is>
+      <c r="G40" t="n">
+        <v>368323</v>
       </c>
       <c r="H40" t="n">
-        <v>7.125</v>
+        <v>6.95</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
-        <v>3101278</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SC/AH Basle 541</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>13.7917</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1874,27 +1892,27 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>23</v>
-      </c>
       <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" t="n">
-        <v>29104</v>
+        <v>347088</v>
       </c>
       <c r="H42" t="n">
-        <v>11.5</v>
+        <v>27.9</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
@@ -1905,41 +1923,37 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>24</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>PC 17477</t>
-        </is>
+      <c r="G43" t="n">
+        <v>113510</v>
       </c>
       <c r="H43" t="n">
-        <v>69.3</v>
+        <v>35</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>B35</t>
+          <t>C128</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1970,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>70.5</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1964,27 +1978,25 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>C 7075</t>
-        </is>
+      <c r="G44" t="n">
+        <v>370369</v>
       </c>
       <c r="H44" t="n">
-        <v>6.45</v>
+        <v>7.75</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1992,25 +2004,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>113773</v>
+        <v>363291</v>
       </c>
       <c r="H45" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>D30</t>
-        </is>
-      </c>
+        <v>20.525</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>S</t>
@@ -2019,7 +2027,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -2030,33 +2038,39 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>364846</v>
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PP 9549</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>16.7</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2064,28 +2078,26 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>35273</v>
+        <v>3</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>W./C. 6608</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>113.275</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>D36</t>
-        </is>
-      </c>
+        <v>34.375</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2114,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2111,88 +2123,80 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>315082</v>
+        <v>2623</v>
       </c>
       <c r="H48" t="n">
-        <v>7.875</v>
+        <v>7.225</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>44</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>111361</v>
+        <v>349218</v>
       </c>
       <c r="H49" t="n">
-        <v>57.9792</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>B18</t>
-        </is>
-      </c>
+        <v>7.8958</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="n">
-        <v>113503</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SC/Paris 2123</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>211.5</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>C82</t>
-        </is>
-      </c>
+        <v>41.5792</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>C</t>
@@ -2201,10 +2205,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2212,42 +2216,44 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>347061</v>
+        <v>17453</v>
       </c>
       <c r="H51" t="n">
-        <v>6.975</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>89.10420000000001</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>C92</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>18</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
       </c>
@@ -2255,44 +2261,46 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>29108</v>
+        <v>14312</v>
       </c>
       <c r="H52" t="n">
-        <v>11.5</v>
+        <v>7.75</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>19</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>250655</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>26</v>
+        <v>46.9</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
@@ -2310,28 +2318,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>4136</v>
+        <v>36864</v>
       </c>
       <c r="H54" t="n">
-        <v>9.824999999999999</v>
+        <v>7.7417</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -2340,31 +2348,33 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>C.A. 33595</t>
-        </is>
+      <c r="G55" t="n">
+        <v>11753</v>
       </c>
       <c r="H55" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>52.5542</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>D19</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>S</t>
@@ -2373,30 +2383,30 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>315151</v>
+        <v>29105</v>
       </c>
       <c r="H56" t="n">
-        <v>8.6625</v>
+        <v>23</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -2407,10 +2417,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2418,30 +2428,24 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>PC 17610</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>349909</v>
       </c>
       <c r="H57" t="n">
-        <v>27.7208</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
+        <v>21.075</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2450,27 +2454,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>26</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>250651</v>
+        <v>1601</v>
       </c>
       <c r="H58" t="n">
-        <v>26</v>
+        <v>56.4958</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -2481,7 +2483,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -2500,11 +2502,13 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
-        <v>7552</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>C 7077</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>10.5167</v>
+        <v>7.25</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -2515,32 +2519,30 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>C 7076</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29750</v>
       </c>
       <c r="H60" t="n">
-        <v>7.25</v>
+        <v>39</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -2551,7 +2553,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -2562,53 +2564,51 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2691</v>
+        <v>315153</v>
       </c>
       <c r="H61" t="n">
-        <v>14.4542</v>
+        <v>22.025</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>33</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>26360</v>
+        <v>4133</v>
       </c>
       <c r="H62" t="n">
-        <v>26</v>
+        <v>25.4667</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -2619,32 +2619,38 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="n">
-        <v>26707</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>C.A. 34260</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>26</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>F33</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>S</t>
@@ -2653,32 +2659,30 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>C.A. 31921</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>28228</v>
       </c>
       <c r="H64" t="n">
-        <v>26.25</v>
+        <v>13</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
@@ -2699,20 +2703,18 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>22</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>349252</v>
+        <v>65303</v>
       </c>
       <c r="H65" t="n">
-        <v>7.8958</v>
+        <v>19.9667</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
@@ -2726,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2734,30 +2736,24 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>PC 17757</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>347077</v>
       </c>
       <c r="H66" t="n">
-        <v>227.525</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>C45</t>
-        </is>
-      </c>
+        <v>31.3875</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2774,24 +2770,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>7534</v>
+        <v>2659</v>
       </c>
       <c r="H67" t="n">
-        <v>9.216699999999999</v>
+        <v>14.4542</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2800,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>111369</v>
+        <v>11767</v>
       </c>
       <c r="H68" t="n">
-        <v>30</v>
+        <v>83.1583</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>C148</t>
+          <t>C50</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2835,10 +2831,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2846,25 +2842,21 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>230080</v>
+        <v>347064</v>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>S</t>
@@ -2876,14 +2868,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>52</v>
+      </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
@@ -2891,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>113796</v>
+        <v>250647</v>
       </c>
       <c r="H70" t="n">
-        <v>42.4</v>
+        <v>13</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
@@ -2905,7 +2899,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -2924,13 +2918,11 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101286</t>
-        </is>
+      <c r="G71" t="n">
+        <v>8471</v>
       </c>
       <c r="H71" t="n">
-        <v>7.925</v>
+        <v>8.362500000000001</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
@@ -2944,32 +2936,32 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>SC/PARIS 2146</t>
-        </is>
+      <c r="G72" t="n">
+        <v>4138</v>
       </c>
       <c r="H72" t="n">
-        <v>13.8625</v>
+        <v>9.841699999999999</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2978,65 +2970,65 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>27</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>11668</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PC 17605</t>
+        </is>
       </c>
       <c r="H73" t="n">
-        <v>21</v>
+        <v>27.7208</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>113760</v>
+        <v>19877</v>
       </c>
       <c r="H74" t="n">
-        <v>120</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>B96 B98</t>
+          <t>C46</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3047,18 +3039,18 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3066,18 +3058,20 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>C.A./SOTON 34068</t>
-        </is>
+      <c r="G75" t="n">
+        <v>11767</v>
       </c>
       <c r="H75" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>83.1583</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>C54</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3094,30 +3088,24 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>PC 17596</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>315086</v>
       </c>
       <c r="H76" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>C118</t>
-        </is>
-      </c>
+        <v>8.6625</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3122,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3143,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>237565</v>
+        <v>244278</v>
       </c>
       <c r="H77" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -3160,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3168,19 +3156,21 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>28228</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>STON/O2. 3101279</t>
+        </is>
       </c>
       <c r="H78" t="n">
-        <v>13</v>
+        <v>15.85</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
@@ -3191,7 +3181,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>3</v>
@@ -3202,7 +3192,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3210,27 +3200,25 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>C 17369</t>
-        </is>
+      <c r="G79" t="n">
+        <v>2699</v>
       </c>
       <c r="H79" t="n">
-        <v>7.1417</v>
+        <v>18.7875</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3238,7 +3226,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3246,13 +3234,11 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>S.W./PP 752</t>
-        </is>
+      <c r="G80" t="n">
+        <v>7545</v>
       </c>
       <c r="H80" t="n">
-        <v>10.5</v>
+        <v>9.4833</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -3263,7 +3249,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -3274,26 +3260,30 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC 17611</t>
+          <t>PC 17593</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>133.65</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>79.2</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>B82 B84</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3302,15 +3292,15 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3318,16 +3308,22 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="n">
-        <v>315086</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PC 17595</t>
+        </is>
       </c>
       <c r="H82" t="n">
-        <v>8.6625</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>28.7125</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>C49</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3344,23 +3340,27 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>S.O.C. 14879</t>
+          <t>PC 17582</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>153.4625</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>C91</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>S</t>
@@ -3376,23 +3376,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>349909</v>
+        <v>2</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
       </c>
       <c r="H84" t="n">
-        <v>21.075</v>
+        <v>46.9</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
@@ -3403,18 +3405,18 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3423,16 +3425,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>12749</v>
+        <v>28425</v>
       </c>
       <c r="H85" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>B73</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
           <t>S</t>
@@ -3444,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3452,23 +3450,25 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101274</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>35281</v>
       </c>
       <c r="H86" t="n">
-        <v>7.125</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>77.28749999999999</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>D26</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>S</t>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>3</v>
@@ -3495,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>312991</v>
+        <v>362316</v>
       </c>
       <c r="H87" t="n">
-        <v>7.775</v>
+        <v>7.25</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3520,19 +3520,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>349909</v>
+        <v>31028</v>
       </c>
       <c r="H88" t="n">
-        <v>21.075</v>
+        <v>10.5</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
@@ -3543,73 +3543,69 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>233866</v>
+        <v>237736</v>
       </c>
       <c r="H89" t="n">
-        <v>13</v>
+        <v>30.0708</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>110813</v>
+        <v>349257</v>
       </c>
       <c r="H90" t="n">
-        <v>75.25</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>D37</t>
-        </is>
-      </c>
+        <v>7.8958</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3626,7 +3622,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3635,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>364516</v>
+        <v>27849</v>
       </c>
       <c r="H91" t="n">
-        <v>12.475</v>
+        <v>13</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
@@ -3649,45 +3645,41 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>113509</v>
+        <v>330958</v>
       </c>
       <c r="H92" t="n">
-        <v>61.9792</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>B30</t>
-        </is>
-      </c>
+        <v>7.8792</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>3</v>
@@ -3698,53 +3690,53 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2650</v>
+        <v>6</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
       </c>
       <c r="H93" t="n">
-        <v>15.2458</v>
+        <v>46.9</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>39</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>347082</v>
+        <v>248727</v>
       </c>
       <c r="H94" t="n">
-        <v>31.275</v>
+        <v>33</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
@@ -3758,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3766,7 +3758,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -3776,16 +3768,16 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>SOTON/O.Q. 3101312</t>
+          <t>PC 17601</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7.05</v>
+        <v>27.7208</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3794,15 +3786,15 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3810,49 +3802,53 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="n">
-        <v>364850</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>C.A. 33111</t>
+        </is>
       </c>
       <c r="H96" t="n">
-        <v>7.75</v>
+        <v>10.5</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SOTON/O.Q. 3101307</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>230136</v>
       </c>
       <c r="H97" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>S</t>
@@ -3861,7 +3857,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
@@ -3872,24 +3868,26 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>31028</v>
+        <v>2</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>S.C./PARIS 2079</t>
+        </is>
       </c>
       <c r="H98" t="n">
-        <v>10.5</v>
+        <v>37.0042</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3905,9 +3903,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>33</v>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>0</v>
       </c>
@@ -3915,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>349239</v>
+        <v>2641</v>
       </c>
       <c r="H99" t="n">
-        <v>8.6625</v>
+        <v>7.2292</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
@@ -3936,26 +3932,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="n">
-        <v>382649</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>SOTON/O2 3101287</t>
+        </is>
       </c>
       <c r="H100" t="n">
-        <v>7.75</v>
+        <v>7.925</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3968,34 +3968,26 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>32</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SOTON/O.Q. 392078</t>
-        </is>
+      <c r="G101" t="n">
+        <v>2626</v>
       </c>
       <c r="H101" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>E10</t>
-        </is>
-      </c>
+        <v>7.2292</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4004,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4022,11 +4014,11 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>STON/O 2. 3101294</t>
+          <t>SOTON/O.Q. 3101307</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>7.925</v>
+        <v>7.05</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
@@ -4037,56 +4029,52 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>19877</v>
+        <v>113572</v>
       </c>
       <c r="H103" t="n">
-        <v>78.84999999999999</v>
+        <v>80</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>C46</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>B28</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4094,16 +4082,22 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="n">
-        <v>367232</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PC 17485</t>
+        </is>
       </c>
       <c r="H104" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>56.9292</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>E36</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4116,28 +4110,26 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>20</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>2653</v>
+        <v>9234</v>
       </c>
       <c r="H105" t="n">
-        <v>15.7417</v>
+        <v>7.75</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4154,33 +4146,35 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
-        <v>349251</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PC 17604</t>
+        </is>
       </c>
       <c r="H106" t="n">
-        <v>7.8958</v>
+        <v>82.1708</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4188,24 +4182,24 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>364849</v>
+        <v>244270</v>
       </c>
       <c r="H107" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4216,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4231,12 +4225,16 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>54636</v>
+        <v>348121</v>
       </c>
       <c r="H108" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>F G63</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>S</t>
@@ -4245,67 +4243,71 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
         <v>3</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>349256</v>
+        <v>376566</v>
       </c>
       <c r="H109" t="n">
-        <v>13.4167</v>
+        <v>16.1</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
         <v>3</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>22</v>
+      </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
-      <c r="G110" t="n">
-        <v>330959</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PP 4348</t>
+        </is>
       </c>
       <c r="H110" t="n">
-        <v>7.8792</v>
+        <v>9.35</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4324,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4330,10 +4332,8 @@
       <c r="F111" t="n">
         <v>0</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>A/5 3594</t>
-        </is>
+      <c r="G111" t="n">
+        <v>343276</v>
       </c>
       <c r="H111" t="n">
         <v>8.050000000000001</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4359,34 +4359,30 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>112058</v>
+        <v>2662</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>B102</t>
-        </is>
-      </c>
+        <v>21.6792</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4394,25 +4390,21 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.92</v>
+        <v>25</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>113781</v>
+        <v>234686</v>
       </c>
       <c r="H113" t="n">
-        <v>151.55</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>C22 C26</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
           <t>S</t>
@@ -4421,17 +4413,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>49</v>
+      </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
@@ -4439,14 +4433,14 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>110465</v>
+        <v>17465</v>
       </c>
       <c r="H114" t="n">
-        <v>52</v>
+        <v>25.9292</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>D17</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4460,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4468,25 +4462,21 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>35281</v>
+        <v>347061</v>
       </c>
       <c r="H115" t="n">
-        <v>77.28749999999999</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>D26</t>
-        </is>
-      </c>
+        <v>6.975</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
           <t>S</t>
@@ -4495,30 +4485,30 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>15</v>
+      </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>PC 17757</t>
-        </is>
+      <c r="G116" t="n">
+        <v>2667</v>
       </c>
       <c r="H116" t="n">
-        <v>227.525</v>
+        <v>7.225</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
@@ -4539,20 +4529,20 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>SOTON/OQ 392086</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>349909</v>
       </c>
       <c r="H117" t="n">
-        <v>8.050000000000001</v>
+        <v>21.075</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
@@ -4563,10 +4553,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4574,25 +4564,21 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>19996</v>
+        <v>211536</v>
       </c>
       <c r="H118" t="n">
-        <v>52</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>C126</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
           <t>S</t>
@@ -4601,35 +4587,37 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2653</v>
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>A/5 3536</t>
+        </is>
       </c>
       <c r="H119" t="n">
-        <v>15.7417</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4634,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -4654,13 +4642,11 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>A/4. 39886</t>
-        </is>
+      <c r="G120" t="n">
+        <v>373450</v>
       </c>
       <c r="H120" t="n">
-        <v>7.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
@@ -4671,10 +4657,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4682,28 +4668,24 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>19952</v>
+        <v>382652</v>
       </c>
       <c r="H121" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>E12</t>
-        </is>
-      </c>
+        <v>29.125</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4720,19 +4702,19 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>350404</v>
+        <v>347076</v>
       </c>
       <c r="H122" t="n">
-        <v>7.8542</v>
+        <v>7.775</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
@@ -4746,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4754,19 +4736,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>230433</v>
+        <v>3101265</v>
       </c>
       <c r="H123" t="n">
-        <v>26</v>
+        <v>7.4958</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
@@ -4784,28 +4766,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>343276</v>
+        <v>2665</v>
       </c>
       <c r="H124" t="n">
-        <v>8.050000000000001</v>
+        <v>14.4542</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4814,27 +4796,27 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>237671</v>
+        <v>347080</v>
       </c>
       <c r="H125" t="n">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
@@ -4845,18 +4827,18 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -4865,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>111428</v>
+        <v>350406</v>
       </c>
       <c r="H126" t="n">
-        <v>26.55</v>
+        <v>7.8542</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
@@ -4886,23 +4868,23 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>345773</v>
+        <v>349231</v>
       </c>
       <c r="H127" t="n">
-        <v>24.15</v>
+        <v>7.8958</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
@@ -4913,30 +4895,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="n">
-        <v>31027</v>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>A/5. 2151</t>
+        </is>
       </c>
       <c r="H128" t="n">
-        <v>21</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
@@ -4954,23 +4938,23 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>349237</v>
+        <v>349207</v>
       </c>
       <c r="H129" t="n">
-        <v>17.8</v>
+        <v>7.8958</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
@@ -4988,25 +4972,23 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>21</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A./5. 2152</t>
+          <t>CA. 2343</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>8.050000000000001</v>
+        <v>69.55</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
@@ -5020,29 +5002,27 @@
         <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>SC/PARIS 2149</t>
-        </is>
+      <c r="G131" t="n">
+        <v>2699</v>
       </c>
       <c r="H131" t="n">
-        <v>13.8583</v>
+        <v>18.7875</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
@@ -5053,7 +5033,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>3</v>
@@ -5064,7 +5044,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -5073,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1601</v>
+        <v>345765</v>
       </c>
       <c r="H132" t="n">
-        <v>56.4958</v>
+        <v>9</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
@@ -5090,15 +5070,15 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -5106,19 +5086,13 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>S.O./P.P. 3</t>
-        </is>
+      <c r="G133" t="n">
+        <v>345770</v>
       </c>
       <c r="H133" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>E77</t>
-        </is>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
           <t>S</t>
@@ -5127,7 +5101,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
         <v>3</v>
@@ -5137,25 +5111,23 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>28</v>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>347080</v>
+        <v>371110</v>
       </c>
       <c r="H134" t="n">
-        <v>14.4</v>
+        <v>24.15</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -5172,7 +5144,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -5180,19 +5152,13 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>PC 17590</t>
-        </is>
+      <c r="G135" t="n">
+        <v>349242</v>
       </c>
       <c r="H135" t="n">
-        <v>50.4958</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>A24</t>
-        </is>
-      </c>
+        <v>7.8958</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
           <t>S</t>
@@ -5201,10 +5167,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -5212,53 +5178,53 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2665</v>
+        <v>234818</v>
       </c>
       <c r="H136" t="n">
-        <v>14.4542</v>
+        <v>12.35</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>347470</v>
+        <v>11668</v>
       </c>
       <c r="H137" t="n">
-        <v>7.8542</v>
+        <v>21</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
@@ -5269,34 +5235,36 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>A/4 48871</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>113505</v>
       </c>
       <c r="H138" t="n">
-        <v>24.15</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>S</t>
@@ -5305,50 +5273,44 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>21</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F139" t="n">
         <v>2</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>PC 17608</t>
+          <t>CA. 2343</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>262.375</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>B57 B59 B63 B66</t>
-        </is>
-      </c>
+        <v>69.55</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -5356,62 +5318,68 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
       </c>
-      <c r="G140" t="n">
-        <v>3101295</v>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PC 17759</t>
+        </is>
       </c>
       <c r="H140" t="n">
-        <v>39.6875</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>63.3583</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>D10 D12</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>35273</v>
+        <v>24160</v>
       </c>
       <c r="H141" t="n">
-        <v>113.275</v>
+        <v>211.3375</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5420,32 +5388,34 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>32.5</v>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>237736</v>
+        <v>112058</v>
       </c>
       <c r="H142" t="n">
-        <v>30.0708</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5458,69 +5428,77 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>372622</v>
+        <v>349909</v>
       </c>
       <c r="H143" t="n">
-        <v>7.75</v>
+        <v>21.075</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>347077</v>
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PC 17572</t>
+        </is>
       </c>
       <c r="H144" t="n">
-        <v>31.3875</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>76.72920000000001</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>D33</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -5528,7 +5506,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -5536,17 +5514,15 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
-      <c r="G145" t="n">
-        <v>27042</v>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>C.A. 24579</t>
+        </is>
       </c>
       <c r="H145" t="n">
-        <v>30</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>A23</t>
-        </is>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
           <t>S</t>
@@ -5562,25 +5538,23 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>CA 2144</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>345781</v>
       </c>
       <c r="H146" t="n">
-        <v>46.9</v>
+        <v>9.5</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
@@ -5598,27 +5572,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>113505</v>
+        <v>27042</v>
       </c>
       <c r="H147" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>E33</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5641,16 +5615,16 @@
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>36209</v>
+        <v>367229</v>
       </c>
       <c r="H148" t="n">
-        <v>7.725</v>
+        <v>7.75</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
@@ -5664,29 +5638,33 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>61</v>
+      </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>W./C. 6609</t>
-        </is>
+      <c r="G149" t="n">
+        <v>111240</v>
       </c>
       <c r="H149" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>33.5</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>B19</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>S</t>
@@ -5698,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -5706,60 +5684,66 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>347081</v>
+        <v>111361</v>
       </c>
       <c r="H150" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>57.9792</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>C.A. 24580</t>
-        </is>
+      <c r="G151" t="n">
+        <v>35273</v>
       </c>
       <c r="H151" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>113.275</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>D36</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5768,29 +5752,33 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>231919</v>
+        <v>113806</v>
       </c>
       <c r="H152" t="n">
-        <v>23</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>53.1</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
       <c r="J152" t="inlineStr">
         <is>
           <t>S</t>
@@ -5809,20 +5797,18 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>7</v>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>3101295</v>
+        <v>374910</v>
       </c>
       <c r="H153" t="n">
-        <v>39.6875</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
@@ -5840,23 +5826,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>347077</v>
+        <v>7598</v>
       </c>
       <c r="H154" t="n">
-        <v>31.3875</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
@@ -5870,33 +5856,29 @@
         <v>1</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>112277</v>
+        <v>2666</v>
       </c>
       <c r="H155" t="n">
-        <v>31</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>A31</t>
-        </is>
-      </c>
+        <v>19.2583</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
           <t>C</t>
@@ -5905,39 +5887,35 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>13568</v>
+        <v>349228</v>
       </c>
       <c r="H156" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>B39</t>
-        </is>
-      </c>
+        <v>10.1708</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5946,15 +5924,15 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -5963,33 +5941,35 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>2699</v>
+        <v>112053</v>
       </c>
       <c r="H157" t="n">
-        <v>18.7875</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>B42</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>33</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
         <v>0</v>
       </c>
@@ -5997,16 +5977,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>110152</v>
+        <v>113798</v>
       </c>
       <c r="H158" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>B77</t>
-        </is>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
           <t>S</t>
@@ -6015,39 +5991,35 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>16966</v>
+        <v>382652</v>
       </c>
       <c r="H159" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>E34</t>
-        </is>
-      </c>
+        <v>29.125</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6056,59 +6028,69 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>22</v>
+      </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
-      <c r="G160" t="n">
-        <v>323592</v>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PC 17760</t>
+        </is>
       </c>
       <c r="H160" t="n">
-        <v>7.25</v>
+        <v>135.6333</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>19</v>
+      </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>343095</v>
+        <v>11752</v>
       </c>
       <c r="H161" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>26.2833</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>D47</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr">
         <is>
           <t>S</t>
@@ -6117,64 +6099,74 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>33</v>
+      </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>36568</v>
+        <v>113806</v>
       </c>
       <c r="H162" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>53.1</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>37</v>
+      </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>A/5 2466</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>11751</v>
       </c>
       <c r="H163" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>52.5542</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr">
         <is>
           <t>S</t>
@@ -6183,18 +6175,18 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -6203,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>350047</v>
+        <v>31418</v>
       </c>
       <c r="H164" t="n">
-        <v>7.8542</v>
+        <v>13</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
@@ -6217,35 +6209,33 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>3</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>59</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>364500</v>
+        <v>367226</v>
       </c>
       <c r="H165" t="n">
-        <v>7.25</v>
+        <v>23.25</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -6262,19 +6252,21 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
-      <c r="G166" t="n">
-        <v>19877</v>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>STON/O2. 3101279</t>
+        </is>
       </c>
       <c r="H166" t="n">
-        <v>78.84999999999999</v>
+        <v>15.85</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
@@ -6288,32 +6280,32 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>336439</v>
+        <v>11668</v>
       </c>
       <c r="H167" t="n">
-        <v>7.75</v>
+        <v>21</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -6330,7 +6322,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -6339,10 +6331,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>244358</v>
+        <v>347466</v>
       </c>
       <c r="H168" t="n">
-        <v>26</v>
+        <v>7.8542</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
@@ -6353,37 +6345,35 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F169" t="n">
         <v>2</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>S.C./PARIS 2079</t>
+          <t>CA. 2343</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>37.0042</v>
+        <v>69.55</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6399,9 +6389,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>22</v>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
         <v>0</v>
       </c>
@@ -6410,7 +6398,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>A/5 21172</t>
+          <t>A/4. 34244</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -6425,10 +6413,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -6436,30 +6424,30 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>3101276</v>
+        <v>111426</v>
       </c>
       <c r="H171" t="n">
-        <v>7.925</v>
+        <v>26.55</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
         <v>3</v>
@@ -6469,20 +6457,18 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>45</v>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>7598</v>
+        <v>4133</v>
       </c>
       <c r="H172" t="n">
-        <v>8.050000000000001</v>
+        <v>25.4667</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
@@ -6496,27 +6482,27 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>220367</v>
+        <v>4136</v>
       </c>
       <c r="H173" t="n">
-        <v>13</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
@@ -6537,7 +6523,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>44</v>
+      </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
@@ -6545,46 +6533,44 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>2631</v>
+        <v>364511</v>
       </c>
       <c r="H174" t="n">
-        <v>7.225</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>C.A. 34651</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>350036</v>
       </c>
       <c r="H175" t="n">
-        <v>27.75</v>
+        <v>7.7958</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
@@ -6595,35 +6581,41 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
-      <c r="G176" t="n">
-        <v>239865</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>PC 17757</t>
+        </is>
       </c>
       <c r="H176" t="n">
-        <v>26</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>227.525</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>C62 C64</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6640,25 +6632,21 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>36973</v>
+        <v>19972</v>
       </c>
       <c r="H177" t="n">
-        <v>83.47499999999999</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>C83</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
           <t>S</t>
@@ -6678,19 +6666,19 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>347088</v>
+        <v>364512</v>
       </c>
       <c r="H178" t="n">
-        <v>27.9</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
@@ -6701,19 +6689,17 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>56</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>0</v>
       </c>
@@ -6721,19 +6707,15 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>17764</v>
+        <v>370375</v>
       </c>
       <c r="H179" t="n">
-        <v>30.6958</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6742,33 +6724,31 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>113803</v>
+        <v>2</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>W./C. 6608</t>
+        </is>
       </c>
       <c r="H180" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>C123</t>
-        </is>
-      </c>
+        <v>34.375</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
           <t>S</t>
